--- a/data/trans_bre/P23_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,42; -17,24</t>
+          <t>-24,33; -17,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,2; -13,85</t>
+          <t>-20,71; -13,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,78; -11,94</t>
+          <t>-19,71; -11,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -12,69</t>
+          <t>-21,46; -12,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,44; -54,23</t>
+          <t>-67,28; -54,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,42; -46,6</t>
+          <t>-60,83; -45,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-61,68; -44,2</t>
+          <t>-62,03; -44,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-69,37; -52,44</t>
+          <t>-69,52; -52,64</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,67; -8,82</t>
+          <t>-15,56; -8,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,87; -1,3</t>
+          <t>-7,72; -1,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -2,74</t>
+          <t>-8,5; -2,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 3,41</t>
+          <t>-10,69; 3,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,99; -20,29</t>
+          <t>-33,05; -19,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,35; -3,27</t>
+          <t>-18,66; -3,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,41; -7,27</t>
+          <t>-21,09; -6,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,7; 12,52</t>
+          <t>-38,41; 14,87</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -0,76</t>
+          <t>-12,6; -1,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 3,42</t>
+          <t>-8,47; 4,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 2,64</t>
+          <t>-8,19; 2,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 4,09</t>
+          <t>-5,07; 4,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-34,44; -2,64</t>
+          <t>-35,01; -3,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 12,1</t>
+          <t>-24,03; 14,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,99; 12,12</t>
+          <t>-29,77; 10,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 28,37</t>
+          <t>-26,01; 32,08</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -13,24</t>
+          <t>-17,45; -12,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,1; -7,33</t>
+          <t>-11,9; -7,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -6,2</t>
+          <t>-10,64; -6,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,48; -1,1</t>
+          <t>-9,57; -0,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,89; -34,1</t>
+          <t>-42,77; -33,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,94; -20,75</t>
+          <t>-31,33; -20,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,38; -18,41</t>
+          <t>-29,86; -18,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,43; -8,05</t>
+          <t>-37,58; -4,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P23_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Estudios-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
